--- a/MarkalarMallar.xlsx
+++ b/MarkalarMallar.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Markalar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66B59B-9802-4BEB-BD0E-C2B8C857136E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74CEC80-E077-41A7-AACE-4C98884BDC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B49A552-2CEC-490C-836B-BBE42D409436}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$G$2455</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -15855,16 +15858,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433DFBC1-6367-48AD-9856-5288885870AF}">
   <dimension ref="A1:G2455"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -72333,6 +72339,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G2455" xr:uid="{433DFBC1-6367-48AD-9856-5288885870AF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MarkalarMallar.xlsx
+++ b/MarkalarMallar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Markalar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60DECA3-BCE4-421A-8235-0E8D04EA1627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E0C23A-A7A9-45F2-9DC6-5678AF391DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3B49A552-2CEC-490C-836B-BBE42D409436}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17186" uniqueCount="5157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17263" uniqueCount="5180">
   <si>
     <t>TM.200102112872</t>
   </si>
@@ -15508,6 +15508,75 @@
   </si>
   <si>
     <t>QİYMƏT</t>
+  </si>
+  <si>
+    <t>507.8019.96</t>
+  </si>
+  <si>
+    <t>COVERFIX  25KQ</t>
+  </si>
+  <si>
+    <t>141.1000.72</t>
+  </si>
+  <si>
+    <t>COVER ANTIPAS BOYA AG 15L</t>
+  </si>
+  <si>
+    <t>141.8018.72</t>
+  </si>
+  <si>
+    <t>COVER ANTIPAS BOYA BOZ 15L</t>
+  </si>
+  <si>
+    <t>436.0001.29</t>
+  </si>
+  <si>
+    <t>COVER BINDER 1L</t>
+  </si>
+  <si>
+    <t>436.0001.48</t>
+  </si>
+  <si>
+    <t>COVER BINDER 4L</t>
+  </si>
+  <si>
+    <t>322.1000.95</t>
+  </si>
+  <si>
+    <t>COVER DIS CEPHE BOYASI   10KQ</t>
+  </si>
+  <si>
+    <t>322.1000.94</t>
+  </si>
+  <si>
+    <t>COVER DIS CEPHE BOYASI   3,5KQ</t>
+  </si>
+  <si>
+    <t>322.1000.96</t>
+  </si>
+  <si>
+    <t>COVER DIS CEPHE BOYASI  25KQ</t>
+  </si>
+  <si>
+    <t>302.1000.95</t>
+  </si>
+  <si>
+    <t>COVER PLASTIK BOYA   10KQ</t>
+  </si>
+  <si>
+    <t>302.1000.94</t>
+  </si>
+  <si>
+    <t>COVER PLASTIK BOYA   3,5KQ</t>
+  </si>
+  <si>
+    <t>302.1000.96</t>
+  </si>
+  <si>
+    <t>COVER PLASTIK BOYA  25KQ</t>
+  </si>
+  <si>
+    <t>COVER</t>
   </si>
 </sst>
 </file>
@@ -15860,21 +15929,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433DFBC1-6367-48AD-9856-5288885870AF}">
-  <dimension ref="A1:H2455"/>
+  <dimension ref="A1:H2466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -79708,6 +79775,292 @@
         <v>4994</v>
       </c>
     </row>
+    <row r="2456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2456" t="s">
+        <v>5157</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>5158</v>
+      </c>
+      <c r="C2456" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D2456" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2456" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2456" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2456" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2456" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2457" t="s">
+        <v>5159</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>5160</v>
+      </c>
+      <c r="C2457" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="D2457" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2457" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2457" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2457" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2457" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2458" t="s">
+        <v>5161</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>5162</v>
+      </c>
+      <c r="C2458" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="D2458" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2458" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2458" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2458" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2458" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2459" t="s">
+        <v>5163</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>5164</v>
+      </c>
+      <c r="C2459" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D2459" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2459" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2459" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2459" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2459" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2460" t="s">
+        <v>5165</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>5166</v>
+      </c>
+      <c r="C2460" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2460" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2460" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2460" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2460" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2461" t="s">
+        <v>5167</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>5168</v>
+      </c>
+      <c r="C2461" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2461" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2461" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2461" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2461" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2462" t="s">
+        <v>5169</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C2462" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2462" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2462" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2462" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2462" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2463" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>5172</v>
+      </c>
+      <c r="C2463" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2463" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2463" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2463" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2463" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2464" t="s">
+        <v>5173</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>5174</v>
+      </c>
+      <c r="C2464" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="D2464" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2464" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2464" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2464" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2464" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2465" t="s">
+        <v>5175</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>5176</v>
+      </c>
+      <c r="C2465" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2465" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2465" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2465" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2465" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2466" t="s">
+        <v>5177</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>5178</v>
+      </c>
+      <c r="C2466" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2466" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2466" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2466" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2466" t="s">
+        <v>5179</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H2455" xr:uid="{433DFBC1-6367-48AD-9856-5288885870AF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MarkalarMallar.xlsx
+++ b/MarkalarMallar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Markalar\Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABE3ADE-9971-4E84-9234-C00F86F8764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEFB85C-0E8E-469F-B0FB-77AB817E4677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B49A552-2CEC-490C-836B-BBE42D409436}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$H$2508</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17249" uniqueCount="5174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17557" uniqueCount="5263">
   <si>
     <t>TM.200102112872</t>
   </si>
@@ -15559,6 +15559,273 @@
   </si>
   <si>
     <t>Taxta Qoruyucuları</t>
+  </si>
+  <si>
+    <t>TM.241105101474</t>
+  </si>
+  <si>
+    <t>TM.241105101475</t>
+  </si>
+  <si>
+    <t>TM.241105101476</t>
+  </si>
+  <si>
+    <t>TM.241105101477</t>
+  </si>
+  <si>
+    <t>TM.241105101478</t>
+  </si>
+  <si>
+    <t>TM.241105101479</t>
+  </si>
+  <si>
+    <t>TM.241105101480</t>
+  </si>
+  <si>
+    <t>TM.241105101481</t>
+  </si>
+  <si>
+    <t>TM.241105101482</t>
+  </si>
+  <si>
+    <t>TM.241105101483</t>
+  </si>
+  <si>
+    <t>TM.241105101484</t>
+  </si>
+  <si>
+    <t>TM.241105101485</t>
+  </si>
+  <si>
+    <t>TM.241105101486</t>
+  </si>
+  <si>
+    <t>TM.241105101487</t>
+  </si>
+  <si>
+    <t>TM.241105101488</t>
+  </si>
+  <si>
+    <t>TM.241105101489</t>
+  </si>
+  <si>
+    <t>TM.241105101490</t>
+  </si>
+  <si>
+    <t>TM.241105101491</t>
+  </si>
+  <si>
+    <t>TM.241105101492</t>
+  </si>
+  <si>
+    <t>TM.241105101493</t>
+  </si>
+  <si>
+    <t>TM.241105101494</t>
+  </si>
+  <si>
+    <t>TM.241105101495</t>
+  </si>
+  <si>
+    <t>TM.241105101496</t>
+  </si>
+  <si>
+    <t>TM.241105101497</t>
+  </si>
+  <si>
+    <t>TM.241105101498</t>
+  </si>
+  <si>
+    <t>TM.241105101499</t>
+  </si>
+  <si>
+    <t>TM.241105101500</t>
+  </si>
+  <si>
+    <t>TM.241105101501</t>
+  </si>
+  <si>
+    <t>TM.241105101502</t>
+  </si>
+  <si>
+    <t>TM.241105101503</t>
+  </si>
+  <si>
+    <t>TM.241105101504</t>
+  </si>
+  <si>
+    <t>TM.241105101505</t>
+  </si>
+  <si>
+    <t>TM.241105101506</t>
+  </si>
+  <si>
+    <t>TM.241105101507</t>
+  </si>
+  <si>
+    <t>TM.241105101508</t>
+  </si>
+  <si>
+    <t>TM.241105101509</t>
+  </si>
+  <si>
+    <t>TM.241105101510</t>
+  </si>
+  <si>
+    <t>TM.241105101511</t>
+  </si>
+  <si>
+    <t>TM.241105101512</t>
+  </si>
+  <si>
+    <t>TM.241105101513</t>
+  </si>
+  <si>
+    <t>TM.241105091514</t>
+  </si>
+  <si>
+    <t>TM.241105091515</t>
+  </si>
+  <si>
+    <t>TM.241105091516</t>
+  </si>
+  <si>
+    <t>TM.241105091517</t>
+  </si>
+  <si>
+    <t>Bolt, Qayka, Şayba</t>
+  </si>
+  <si>
+    <t>QAYKA M6 BQM6 Q/25</t>
+  </si>
+  <si>
+    <t>QAYKA M8 BQM8 Q/25</t>
+  </si>
+  <si>
+    <t>QAYKA M10 BQM10 Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M6 15MM BM6-15MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M6 20MM BM6-20MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M6 25MM BM6-25MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M6 30MM BM6-30MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M6 40MM BM6-40MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M6 50MM BM6-50MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M8 15MM BM8-15MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M8 20MM BM8-20MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M8 25MM BM8-25MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M8 30MM BM8-30MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M8 40MM BM8-40MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M8 50MM BM8-50MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M8 60MM BM8-60MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M8 70MM BM8-70MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M8 80MM BM8-80MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M8 100MM BM8-100MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M8 120MM BM8-120MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M8 150MM BM8-150MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M10 20MM BM10-20MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M10 25MM BM10-25MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M10 30MM BM10-30MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M10 40MM BM10-40MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M10 50MM BM10-50MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M10 60MM BM10-60MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M10 70MM BM10-70MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M10 100MM BM10-100MM Q/25</t>
+  </si>
+  <si>
+    <t>BOLT M10 120MM BM10-120MM Q/25</t>
+  </si>
+  <si>
+    <t>ŞAYBA 6X16 BS6*16 Q/25</t>
+  </si>
+  <si>
+    <t>ŞAYBA 6X18 BS6*18 Q/25</t>
+  </si>
+  <si>
+    <t>ŞAYBA 6X22 BS6*22 Q/25</t>
+  </si>
+  <si>
+    <t>ŞAYBA 6X30 BS6*30 Q/25</t>
+  </si>
+  <si>
+    <t>ŞAYBA 8X18 BS8*18 Q/25</t>
+  </si>
+  <si>
+    <t>ŞAYBA 8X22 BS8*22 Q/25</t>
+  </si>
+  <si>
+    <t>ŞAYBA 8X30 BS8*30 Q/25</t>
+  </si>
+  <si>
+    <t>ŞAYBA 8X40 BS8*40 Q/25</t>
+  </si>
+  <si>
+    <t>ŞAYBA 10X25 BS10*25 Q/25</t>
+  </si>
+  <si>
+    <t>ŞAYBA 10X30 BS10*30 Q/25</t>
+  </si>
+  <si>
+    <t>BOLT SAMAREZ 8X75MM HSW875 Q/25</t>
+  </si>
+  <si>
+    <t>BOLT SAMAREZ 10X75MM HSW1075 Q/25</t>
+  </si>
+  <si>
+    <t>BOLT SAMAREZ 8X100MM HSW810 Q/25</t>
+  </si>
+  <si>
+    <t>BOLT SAMAREZ 10X100MM HSW1010 Q/25</t>
   </si>
 </sst>
 </file>
@@ -15911,10 +16178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433DFBC1-6367-48AD-9856-5288885870AF}">
-  <dimension ref="A1:H2464"/>
+  <dimension ref="A1:H2508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27611,7 +27878,7 @@
         <v>1057</v>
       </c>
       <c r="C450" s="1">
-        <v>18.899999999999999</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D450" t="s">
         <v>2</v>
@@ -27741,7 +28008,7 @@
         <v>1067</v>
       </c>
       <c r="C455" s="1">
-        <v>19.3</v>
+        <v>21</v>
       </c>
       <c r="D455" t="s">
         <v>2</v>
@@ -28235,7 +28502,7 @@
         <v>1108</v>
       </c>
       <c r="C474" s="1">
-        <v>15.3</v>
+        <v>16.5</v>
       </c>
       <c r="D474" t="s">
         <v>2</v>
@@ -28391,7 +28658,7 @@
         <v>1121</v>
       </c>
       <c r="C480" s="1">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="D480" t="s">
         <v>2</v>
@@ -28495,7 +28762,7 @@
         <v>1129</v>
       </c>
       <c r="C484" s="1">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="D484" t="s">
         <v>2</v>
@@ -28573,7 +28840,7 @@
         <v>1136</v>
       </c>
       <c r="C487" s="1">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="D487" t="s">
         <v>2</v>
@@ -48203,7 +48470,7 @@
         <v>2724</v>
       </c>
       <c r="C1242" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D1242" t="s">
         <v>332</v>
@@ -48229,7 +48496,7 @@
         <v>2730</v>
       </c>
       <c r="C1243" s="1">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D1243" t="s">
         <v>332</v>
@@ -48255,7 +48522,7 @@
         <v>2732</v>
       </c>
       <c r="C1244" s="1">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D1244" t="s">
         <v>332</v>
@@ -48281,7 +48548,7 @@
         <v>2734</v>
       </c>
       <c r="C1245" s="1">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D1245" t="s">
         <v>332</v>
@@ -49867,7 +50134,7 @@
         <v>2861</v>
       </c>
       <c r="C1306" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="D1306" t="s">
         <v>332</v>
@@ -50257,7 +50524,7 @@
         <v>2891</v>
       </c>
       <c r="C1321" s="1">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="D1321" t="s">
         <v>332</v>
@@ -50803,7 +51070,7 @@
         <v>2934</v>
       </c>
       <c r="C1342" s="1">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D1342" t="s">
         <v>332</v>
@@ -50829,7 +51096,7 @@
         <v>2936</v>
       </c>
       <c r="C1343" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="D1343" t="s">
         <v>332</v>
@@ -50933,7 +51200,7 @@
         <v>2945</v>
       </c>
       <c r="C1347" s="1">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="D1347" t="s">
         <v>332</v>
@@ -51063,7 +51330,7 @@
         <v>2955</v>
       </c>
       <c r="C1352" s="1">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="D1352" t="s">
         <v>332</v>
@@ -54443,7 +54710,7 @@
         <v>3224</v>
       </c>
       <c r="C1482" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="D1482" t="s">
         <v>332</v>
@@ -54469,7 +54736,7 @@
         <v>3226</v>
       </c>
       <c r="C1483" s="1">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="D1483" t="s">
         <v>332</v>
@@ -54495,7 +54762,7 @@
         <v>3228</v>
       </c>
       <c r="C1484" s="1">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="D1484" t="s">
         <v>332</v>
@@ -54521,7 +54788,7 @@
         <v>3230</v>
       </c>
       <c r="C1485" s="1">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="D1485" t="s">
         <v>332</v>
@@ -58187,7 +58454,7 @@
         <v>3519</v>
       </c>
       <c r="C1626" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1626" t="s">
         <v>124</v>
@@ -58213,7 +58480,7 @@
         <v>3521</v>
       </c>
       <c r="C1627" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1627" t="s">
         <v>124</v>
@@ -58239,7 +58506,7 @@
         <v>3523</v>
       </c>
       <c r="C1628" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1628" t="s">
         <v>124</v>
@@ -58265,7 +58532,7 @@
         <v>3525</v>
       </c>
       <c r="C1629" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1629" t="s">
         <v>124</v>
@@ -58291,7 +58558,7 @@
         <v>3527</v>
       </c>
       <c r="C1630" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1630" t="s">
         <v>124</v>
@@ -58317,7 +58584,7 @@
         <v>3529</v>
       </c>
       <c r="C1631" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1631" t="s">
         <v>124</v>
@@ -58343,7 +58610,7 @@
         <v>3531</v>
       </c>
       <c r="C1632" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1632" t="s">
         <v>124</v>
@@ -58369,7 +58636,7 @@
         <v>3533</v>
       </c>
       <c r="C1633" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1633" t="s">
         <v>124</v>
@@ -58395,7 +58662,7 @@
         <v>3535</v>
       </c>
       <c r="C1634" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1634" t="s">
         <v>124</v>
@@ -58421,7 +58688,7 @@
         <v>3537</v>
       </c>
       <c r="C1635" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1635" t="s">
         <v>124</v>
@@ -58447,7 +58714,7 @@
         <v>3539</v>
       </c>
       <c r="C1636" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1636" t="s">
         <v>124</v>
@@ -58473,7 +58740,7 @@
         <v>3541</v>
       </c>
       <c r="C1637" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1637" t="s">
         <v>124</v>
@@ -58499,7 +58766,7 @@
         <v>3543</v>
       </c>
       <c r="C1638" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1638" t="s">
         <v>124</v>
@@ -58525,7 +58792,7 @@
         <v>3545</v>
       </c>
       <c r="C1639" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1639" t="s">
         <v>124</v>
@@ -58577,7 +58844,7 @@
         <v>3549</v>
       </c>
       <c r="C1641" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D1641" t="s">
         <v>124</v>
@@ -58759,7 +59026,7 @@
         <v>3564</v>
       </c>
       <c r="C1648" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1648" t="s">
         <v>332</v>
@@ -60813,7 +61080,7 @@
         <v>3732</v>
       </c>
       <c r="C1727" s="1">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D1727" t="s">
         <v>124</v>
@@ -60839,7 +61106,7 @@
         <v>3734</v>
       </c>
       <c r="C1728" s="1">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D1728" t="s">
         <v>124</v>
@@ -60865,7 +61132,7 @@
         <v>3736</v>
       </c>
       <c r="C1729" s="1">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D1729" t="s">
         <v>124</v>
@@ -60891,7 +61158,7 @@
         <v>3738</v>
       </c>
       <c r="C1730" s="1">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D1730" t="s">
         <v>124</v>
@@ -60917,7 +61184,7 @@
         <v>3740</v>
       </c>
       <c r="C1731" s="1">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D1731" t="s">
         <v>124</v>
@@ -60943,7 +61210,7 @@
         <v>3742</v>
       </c>
       <c r="C1732" s="1">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="D1732" t="s">
         <v>332</v>
@@ -61255,7 +61522,7 @@
         <v>3772</v>
       </c>
       <c r="C1744" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1744" t="s">
         <v>332</v>
@@ -62529,7 +62796,7 @@
         <v>3878</v>
       </c>
       <c r="C1793" s="1">
-        <v>35.700000000000003</v>
+        <v>38</v>
       </c>
       <c r="D1793" t="s">
         <v>332</v>
@@ -63959,7 +64226,7 @@
         <v>3993</v>
       </c>
       <c r="C1848" s="1">
-        <v>47.9</v>
+        <v>43</v>
       </c>
       <c r="D1848" t="s">
         <v>2</v>
@@ -64037,7 +64304,7 @@
         <v>3999</v>
       </c>
       <c r="C1851" s="1">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D1851" t="s">
         <v>2</v>
@@ -64063,7 +64330,7 @@
         <v>4002</v>
       </c>
       <c r="C1852" s="1">
-        <v>31.9</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D1852" t="s">
         <v>2</v>
@@ -64089,7 +64356,7 @@
         <v>4005</v>
       </c>
       <c r="C1853" s="1">
-        <v>52.5</v>
+        <v>51</v>
       </c>
       <c r="D1853" t="s">
         <v>2</v>
@@ -64609,7 +64876,7 @@
         <v>4048</v>
       </c>
       <c r="C1873" s="1">
-        <v>24.7</v>
+        <v>26.2</v>
       </c>
       <c r="D1873" t="s">
         <v>2</v>
@@ -64739,7 +65006,7 @@
         <v>4061</v>
       </c>
       <c r="C1878" s="1">
-        <v>579</v>
+        <v>629</v>
       </c>
       <c r="D1878" t="s">
         <v>2</v>
@@ -64817,7 +65084,7 @@
         <v>4069</v>
       </c>
       <c r="C1881" s="1">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="D1881" t="s">
         <v>2</v>
@@ -64895,7 +65162,7 @@
         <v>4075</v>
       </c>
       <c r="C1884" s="1">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1884" t="s">
         <v>2</v>
@@ -64999,7 +65266,7 @@
         <v>4085</v>
       </c>
       <c r="C1888" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1888" t="s">
         <v>2</v>
@@ -65129,7 +65396,7 @@
         <v>4095</v>
       </c>
       <c r="C1893" s="1">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D1893" t="s">
         <v>2</v>
@@ -65337,7 +65604,7 @@
         <v>4113</v>
       </c>
       <c r="C1901" s="1">
-        <v>44.9</v>
+        <v>46.9</v>
       </c>
       <c r="D1901" t="s">
         <v>2</v>
@@ -65493,7 +65760,7 @@
         <v>4125</v>
       </c>
       <c r="C1907" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1907" t="s">
         <v>2</v>
@@ -65545,7 +65812,7 @@
         <v>4129</v>
       </c>
       <c r="C1909" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D1909" t="s">
         <v>2</v>
@@ -65571,7 +65838,7 @@
         <v>4131</v>
       </c>
       <c r="C1910" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1910" t="s">
         <v>2</v>
@@ -65753,7 +66020,7 @@
         <v>4145</v>
       </c>
       <c r="C1917" s="1">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D1917" t="s">
         <v>2</v>
@@ -69445,7 +69712,7 @@
         <v>4433</v>
       </c>
       <c r="C2059" s="1">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="D2059" t="s">
         <v>2</v>
@@ -69627,7 +69894,7 @@
         <v>4447</v>
       </c>
       <c r="C2066" s="1">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="D2066" t="s">
         <v>2</v>
@@ -69783,7 +70050,7 @@
         <v>4459</v>
       </c>
       <c r="C2072" s="1">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="D2072" t="s">
         <v>2</v>
@@ -71941,7 +72208,7 @@
         <v>13</v>
       </c>
       <c r="C2155" s="1">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="D2155" t="s">
         <v>2</v>
@@ -72331,7 +72598,7 @@
         <v>4624</v>
       </c>
       <c r="C2170" s="1">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="D2170" t="s">
         <v>124</v>
@@ -75295,7 +75562,7 @@
         <v>4783</v>
       </c>
       <c r="C2284" s="1">
-        <v>2.4500000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D2284" t="s">
         <v>124</v>
@@ -75529,7 +75796,7 @@
         <v>4803</v>
       </c>
       <c r="C2293" s="1">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D2293" t="s">
         <v>124</v>
@@ -76231,7 +76498,7 @@
         <v>4862</v>
       </c>
       <c r="C2320" s="1">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="D2320" t="s">
         <v>124</v>
@@ -76413,7 +76680,7 @@
         <v>4876</v>
       </c>
       <c r="C2327" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="D2327" t="s">
         <v>124</v>
@@ -76491,7 +76758,7 @@
         <v>4882</v>
       </c>
       <c r="C2330" s="1">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="D2330" t="s">
         <v>124</v>
@@ -76621,7 +76888,7 @@
         <v>4893</v>
       </c>
       <c r="C2335" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D2335" t="s">
         <v>124</v>
@@ -76777,7 +77044,7 @@
         <v>4906</v>
       </c>
       <c r="C2341" s="1">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="D2341" t="s">
         <v>124</v>
@@ -77089,7 +77356,7 @@
         <v>4930</v>
       </c>
       <c r="C2353" s="1">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="D2353" t="s">
         <v>124</v>
@@ -79403,7 +79670,7 @@
         <v>5113</v>
       </c>
       <c r="C2442" s="1">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="D2442" t="s">
         <v>2</v>
@@ -79429,7 +79696,7 @@
         <v>5115</v>
       </c>
       <c r="C2443" s="1">
-        <v>7.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D2443" t="s">
         <v>2</v>
@@ -79559,7 +79826,7 @@
         <v>5125</v>
       </c>
       <c r="C2448" s="1">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="D2448" t="s">
         <v>2</v>
@@ -79585,7 +79852,7 @@
         <v>5127</v>
       </c>
       <c r="C2449" s="1">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="D2449" t="s">
         <v>2</v>
@@ -79611,7 +79878,7 @@
         <v>5129</v>
       </c>
       <c r="C2450" s="1">
-        <v>7.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D2450" t="s">
         <v>2</v>
@@ -79993,8 +80260,1152 @@
         <v>5159</v>
       </c>
     </row>
+    <row r="2465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2465" t="s">
+        <v>5174</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>5219</v>
+      </c>
+      <c r="C2465">
+        <v>4.3</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2465" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2465" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2465" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2465" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2466" t="s">
+        <v>5175</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>5220</v>
+      </c>
+      <c r="C2466">
+        <v>4</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2466" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2466" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2466" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2466" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2467" t="s">
+        <v>5176</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>5221</v>
+      </c>
+      <c r="C2467">
+        <v>3.9</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2467" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2467" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2467" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2467" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2468" t="s">
+        <v>5177</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>5222</v>
+      </c>
+      <c r="C2468">
+        <v>4.3</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2468" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2468" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2468" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2468" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2469" t="s">
+        <v>5178</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>5223</v>
+      </c>
+      <c r="C2469">
+        <v>4.2</v>
+      </c>
+      <c r="D2469" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2469" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2469" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2469" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2469" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2470" t="s">
+        <v>5179</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>5224</v>
+      </c>
+      <c r="C2470">
+        <v>4.2</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2470" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2470" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2470" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2470" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2471" t="s">
+        <v>5180</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>5225</v>
+      </c>
+      <c r="C2471">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D2471" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2471" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2471" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2471" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2471" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2472" t="s">
+        <v>5181</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>5226</v>
+      </c>
+      <c r="C2472">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2472" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2472" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2472" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2472" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2473" t="s">
+        <v>5182</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>5227</v>
+      </c>
+      <c r="C2473">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2473" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2473" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2473" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2473" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2474" t="s">
+        <v>5183</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>5228</v>
+      </c>
+      <c r="C2474">
+        <v>4</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2474" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2474" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2474" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2474" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2475" t="s">
+        <v>5184</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>5229</v>
+      </c>
+      <c r="C2475">
+        <v>4</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2475" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2475" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2475" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2475" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2476" t="s">
+        <v>5185</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>5230</v>
+      </c>
+      <c r="C2476">
+        <v>3.9</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2476" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2476" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2476" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2476" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2477" t="s">
+        <v>5186</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>5231</v>
+      </c>
+      <c r="C2477">
+        <v>3.9</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2477" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2477" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2477" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2477" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2478" t="s">
+        <v>5187</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>5232</v>
+      </c>
+      <c r="C2478">
+        <v>3.9</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2478" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2478" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2478" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2478" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2479" t="s">
+        <v>5188</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>5233</v>
+      </c>
+      <c r="C2479">
+        <v>3.9</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2479" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2479" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2479" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2479" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2480" t="s">
+        <v>5189</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>5234</v>
+      </c>
+      <c r="C2480">
+        <v>3.9</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2480" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2480" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2480" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2480" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2481" t="s">
+        <v>5190</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>5235</v>
+      </c>
+      <c r="C2481">
+        <v>3.9</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2481" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2481" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2481" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2481" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2482" t="s">
+        <v>5191</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>5236</v>
+      </c>
+      <c r="C2482">
+        <v>3.9</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2482" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2482" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2482" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2482" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2483" t="s">
+        <v>5192</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>5237</v>
+      </c>
+      <c r="C2483">
+        <v>3.9</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2483" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2483" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2483" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2483" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2484" t="s">
+        <v>5193</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>5238</v>
+      </c>
+      <c r="C2484">
+        <v>4</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2484" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2484" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2484" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2484" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2485" t="s">
+        <v>5194</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>5239</v>
+      </c>
+      <c r="C2485">
+        <v>4</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2485" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2485" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2485" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2485" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2486" t="s">
+        <v>5195</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>5240</v>
+      </c>
+      <c r="C2486">
+        <v>3.8</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2486" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2486" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2486" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2487" t="s">
+        <v>5196</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>5241</v>
+      </c>
+      <c r="C2487">
+        <v>3.8</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2487" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2487" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2487" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2487" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2488" t="s">
+        <v>5197</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>5242</v>
+      </c>
+      <c r="C2488">
+        <v>3.8</v>
+      </c>
+      <c r="D2488" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2488" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2488" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2488" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2488" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2489" t="s">
+        <v>5198</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>5243</v>
+      </c>
+      <c r="C2489">
+        <v>3.8</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2489" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2489" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2489" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2489" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2490" t="s">
+        <v>5199</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>5244</v>
+      </c>
+      <c r="C2490">
+        <v>3.8</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2490" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2490" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2490" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2490" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2491" t="s">
+        <v>5200</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>5245</v>
+      </c>
+      <c r="C2491">
+        <v>3.8</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2491" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2491" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2491" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2491" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2492" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>5246</v>
+      </c>
+      <c r="C2492">
+        <v>3.8</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2492" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2492" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2492" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2492" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2493" t="s">
+        <v>5202</v>
+      </c>
+      <c r="B2493" t="s">
+        <v>5247</v>
+      </c>
+      <c r="C2493">
+        <v>3.8</v>
+      </c>
+      <c r="D2493" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2493" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2493" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2493" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2493" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2494" t="s">
+        <v>5203</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>5248</v>
+      </c>
+      <c r="C2494">
+        <v>3.8</v>
+      </c>
+      <c r="D2494" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2494" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2494" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2494" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2494" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2495" t="s">
+        <v>5204</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>5249</v>
+      </c>
+      <c r="C2495">
+        <v>3.9</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2495" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2495" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2495" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2496" t="s">
+        <v>5205</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>5250</v>
+      </c>
+      <c r="C2496">
+        <v>3.9</v>
+      </c>
+      <c r="D2496" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2496" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2496" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2496" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2497" t="s">
+        <v>5206</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>5251</v>
+      </c>
+      <c r="C2497">
+        <v>3.9</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2497" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2497" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2497" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2497" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2498" t="s">
+        <v>5207</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>5252</v>
+      </c>
+      <c r="C2498">
+        <v>3.9</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2498" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2498" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2498" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2498" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2499" t="s">
+        <v>5208</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>5253</v>
+      </c>
+      <c r="C2499">
+        <v>3.9</v>
+      </c>
+      <c r="D2499" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2499" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2499" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2499" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2499" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2500" t="s">
+        <v>5209</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>5254</v>
+      </c>
+      <c r="C2500">
+        <v>3.9</v>
+      </c>
+      <c r="D2500" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2500" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2500" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2500" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2500" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2501" t="s">
+        <v>5210</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>5255</v>
+      </c>
+      <c r="C2501">
+        <v>3.9</v>
+      </c>
+      <c r="D2501" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2501" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2501" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2501" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2501" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2502" t="s">
+        <v>5211</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>5256</v>
+      </c>
+      <c r="C2502">
+        <v>3.9</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2502" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2502" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2502" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2502" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2503" t="s">
+        <v>5212</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>5257</v>
+      </c>
+      <c r="C2503">
+        <v>3.9</v>
+      </c>
+      <c r="D2503" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2503" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2503" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2503" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2503" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2504" t="s">
+        <v>5213</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>5258</v>
+      </c>
+      <c r="C2504">
+        <v>3.9</v>
+      </c>
+      <c r="D2504" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2504" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2504" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2504" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2504" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2505" t="s">
+        <v>5214</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>5259</v>
+      </c>
+      <c r="C2505">
+        <v>4.2</v>
+      </c>
+      <c r="D2505" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2505" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2505" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2505" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2505" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2506" t="s">
+        <v>5215</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>5260</v>
+      </c>
+      <c r="C2506">
+        <v>4.2</v>
+      </c>
+      <c r="D2506" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2506" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2506" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2506" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2506" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2507" t="s">
+        <v>5216</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>5261</v>
+      </c>
+      <c r="C2507">
+        <v>4.2</v>
+      </c>
+      <c r="D2507" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2507" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2507" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2507" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2507" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2508" t="s">
+        <v>5217</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>5262</v>
+      </c>
+      <c r="C2508">
+        <v>4.2</v>
+      </c>
+      <c r="D2508" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2508" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2508" t="s">
+        <v>4629</v>
+      </c>
+      <c r="G2508" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2508" t="s">
+        <v>4841</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{433DFBC1-6367-48AD-9856-5288885870AF}"/>
+  <autoFilter ref="A1:H2508" xr:uid="{433DFBC1-6367-48AD-9856-5288885870AF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MarkalarMallar.xlsx
+++ b/MarkalarMallar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Markalar\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE074048-6573-4949-83DE-2289D4E4BA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9DD67F-342D-45A2-BD00-4D90260D2D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B49A552-2CEC-490C-836B-BBE42D409436}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20238" uniqueCount="5770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20602" uniqueCount="5878">
   <si>
     <t>TM.200102112872</t>
   </si>
@@ -17338,6 +17338,330 @@
   </si>
   <si>
     <t>Asma Çilçıraqlar</t>
+  </si>
+  <si>
+    <t>TM.13156</t>
+  </si>
+  <si>
+    <t>ANDELİ STABLİZATOR MOTORLU 500W AD41 Q/4 P/1 X</t>
+  </si>
+  <si>
+    <t>TM.13157</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ MOTORLU 1000W 150-250V AD42 Q/4 P/1</t>
+  </si>
+  <si>
+    <t>TM.14648</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ MOTORLU 7500W AD49 VERTIKAL X</t>
+  </si>
+  <si>
+    <t>TM.14649</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ MOTORLU 10000W AD50VERTIKALQ/1X</t>
+  </si>
+  <si>
+    <t>TM.14650</t>
+  </si>
+  <si>
+    <t>ANDELİ QAYNAQ APARATI ARC 160G AD51 Q/1 X</t>
+  </si>
+  <si>
+    <t>TM.14651</t>
+  </si>
+  <si>
+    <t>ANDELİ QAYNAQ APARATI ARC 180G AD52 Q/1 X</t>
+  </si>
+  <si>
+    <t>TM.14653</t>
+  </si>
+  <si>
+    <t>QAYNAQ APARATI ANDELİ TIG 180G AD54 Q/1 (M) X</t>
+  </si>
+  <si>
+    <t>TM.14654</t>
+  </si>
+  <si>
+    <t>ANDELİ QAYNAQ APARATI TIG 200G AD55 Q/1 X</t>
+  </si>
+  <si>
+    <t>TM.14655</t>
+  </si>
+  <si>
+    <t>QAYNAQ APARATI ANDELİ  TIG 160 AD56 Q/1 X</t>
+  </si>
+  <si>
+    <t>TM.14656</t>
+  </si>
+  <si>
+    <t>QAYNAQ APARATI ANDELİ TIG 180 AD57 Q/1 X</t>
+  </si>
+  <si>
+    <t>TM.14664</t>
+  </si>
+  <si>
+    <t>ANDELİ ELEKT.AVTOMATI MCCB,AM1-400L/3P 250A AD66 X</t>
+  </si>
+  <si>
+    <t>TM.14666</t>
+  </si>
+  <si>
+    <t>ANDELİ ELEKT.AVTOMATI MCCB,AM3T-160/3P 160A AD68 X</t>
+  </si>
+  <si>
+    <t>TM.14667</t>
+  </si>
+  <si>
+    <t>ANDELİ ELEKT.AVTOMATI MCCB,AM3T-250/3P 250A AD69 X</t>
+  </si>
+  <si>
+    <t>TM.14668</t>
+  </si>
+  <si>
+    <t>ANDELİ ELEKT.AVTOMAT MCCB,AM8-160/3P 160A AD70Q/1X</t>
+  </si>
+  <si>
+    <t>TM.14669</t>
+  </si>
+  <si>
+    <t>ANDELİ ELEKT.AVTOMAT MCCB,AM8-250/3P 250A AD71Q/1X</t>
+  </si>
+  <si>
+    <t>TM.15800</t>
+  </si>
+  <si>
+    <t>ANDELİ QAYNAQ APARATI MIG200Y AD73 Q/1 X</t>
+  </si>
+  <si>
+    <t>TM.15801</t>
+  </si>
+  <si>
+    <t>ANDELİ QAYNAQ APARATI MIG250Y AD74 Q/1 X</t>
+  </si>
+  <si>
+    <t>TM.15802</t>
+  </si>
+  <si>
+    <t>ANDELİ QAYNAQ APARATI MIG350 AD75 Q/1 X</t>
+  </si>
+  <si>
+    <t>TM.15803</t>
+  </si>
+  <si>
+    <t>ANDELİ QAYNAQ APARATI ARC160 AD76 Q/1</t>
+  </si>
+  <si>
+    <t>TM.15804</t>
+  </si>
+  <si>
+    <t>ANDELİ QAYNAQ APARATI ARC200-S180A AD78 Q/1</t>
+  </si>
+  <si>
+    <t>TM.15805</t>
+  </si>
+  <si>
+    <t>ANDELİ QAYNAQ APARATI ARC200-S200A AD79 Q/1</t>
+  </si>
+  <si>
+    <t>TM.18150</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ ABVR-500VA (KOMBİ) AD90 Q/4 X</t>
+  </si>
+  <si>
+    <t>TM.18151</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ SXEMA KOMBİ Q/100 X</t>
+  </si>
+  <si>
+    <t>TM.220508010556</t>
+  </si>
+  <si>
+    <t>VOLTAJ TƏNZİMLƏYİCİ ANDELİ 63A/2P AD100 Q/1</t>
+  </si>
+  <si>
+    <t>TM.230508010797</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ SVC-40KVA-3 AD340 Q/1</t>
+  </si>
+  <si>
+    <t>TM.230508010798</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ SVC-50KVA-3 AD350 Q/1</t>
+  </si>
+  <si>
+    <t>TM.15790</t>
+  </si>
+  <si>
+    <t>ANDELİ STABLİZATOR DİGİTAL 500W AD80 Q/2 X</t>
+  </si>
+  <si>
+    <t>TM.15798</t>
+  </si>
+  <si>
+    <t>QAYNAQ APARATI ANDELİ ARC 315G AD80 Q/1 X</t>
+  </si>
+  <si>
+    <t>TM.15799</t>
+  </si>
+  <si>
+    <t>QAYNAQ APARATI ANDELİ TIG 250G AD72 Q/1 X</t>
+  </si>
+  <si>
+    <t>TM.200508010775</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ MOTORLU 5000W 150-250V AD46 Q/1 P/1</t>
+  </si>
+  <si>
+    <t>TM.200508010776</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ MOTORLU 7500W 150-250V AD47 Q/1 P/1</t>
+  </si>
+  <si>
+    <t>TM.200508010777</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ MOTORLU 10000W 150-250V AD48 Q/1 P/1</t>
+  </si>
+  <si>
+    <t>TM.200508010930</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ MOTORLU SVC-15000W 150-250V AD88 Q/1</t>
+  </si>
+  <si>
+    <t>TM.200508010931</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ MOTORLU SVC-20000W 150-250V AD89 Q/1</t>
+  </si>
+  <si>
+    <t>TM.200508011789</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ MOTORLU SVC-30000W 150-250V AD91 Q/1</t>
+  </si>
+  <si>
+    <t>TM.200508012078</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ SVC-3KVA 110-250V AD95 Q/1</t>
+  </si>
+  <si>
+    <t>TM.200508010772</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ MOTORLU 1500W 150-250V AD43 Q/4 P/1</t>
+  </si>
+  <si>
+    <t>TM.200508010773</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ MOTORLU 2000W 150-250V AD44 Q/1 P/1</t>
+  </si>
+  <si>
+    <t>TM.200508010774</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ MOTORLU 3000W 150-250V AD45 Q/1 P/1</t>
+  </si>
+  <si>
+    <t>TM.200508012079</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ SVC-5KVA 110-250V AD96 Q/1</t>
+  </si>
+  <si>
+    <t>TM.200508013197</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ SVC-7.5KVA 110-250V AD97 Q/1</t>
+  </si>
+  <si>
+    <t>TM.200508013198</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ SVC-10KVA 110-250V AD98 Q/1</t>
+  </si>
+  <si>
+    <t>TM.200508013473</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ SVC-15KVA 110-250V AD99 Q/1</t>
+  </si>
+  <si>
+    <t>TM.240508011773</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ SVC-20KVA 110-250V AD81 Q/1</t>
+  </si>
+  <si>
+    <t>TM.240508011774</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ SVC-30KVA 110-250V AD82 Q/1</t>
+  </si>
+  <si>
+    <t>TM.240805012256</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ AD110-40 SVC-40KVA 110-250V Q/1</t>
+  </si>
+  <si>
+    <t>TM.240805012257</t>
+  </si>
+  <si>
+    <t>STABLİZATOR ANDELİ AD110-50 SVC-50KVA 110-250V Q/1</t>
+  </si>
+  <si>
+    <t>TM.14657</t>
+  </si>
+  <si>
+    <t>ANDELİ ELEKT.AVTOMATI MCCB,AM1-63L/3P 50A AD58 X</t>
+  </si>
+  <si>
+    <t>TM.14658</t>
+  </si>
+  <si>
+    <t>ANDELİ ELEKT.AVTOMATI MCCB,AM1-63L/3P 63A AD59 X</t>
+  </si>
+  <si>
+    <t>TM.14659</t>
+  </si>
+  <si>
+    <t>ANDELİ ELEKT.AVTOMATI MCCB,AM-100L/3P80A AD61 Q/1X</t>
+  </si>
+  <si>
+    <t>TM.14661</t>
+  </si>
+  <si>
+    <t>ANDELİ ELEKT.AVTOMATI MCCB,AM-225L/3P125A AD63Q/1X</t>
+  </si>
+  <si>
+    <t>TM.14662</t>
+  </si>
+  <si>
+    <t>ANDELİ ELEKT.AVTOMATI MCCB,AM-225L/3P 160A AD64 X</t>
+  </si>
+  <si>
+    <t>Stablizatorlar</t>
+  </si>
+  <si>
+    <t>Andeli Sığortalar</t>
+  </si>
+  <si>
+    <t>Puskatel və Relelər</t>
+  </si>
+  <si>
+    <t>ANDELI</t>
   </si>
 </sst>
 </file>
@@ -17690,10 +18014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433DFBC1-6367-48AD-9856-5288885870AF}">
-  <dimension ref="A1:H2891"/>
+  <dimension ref="A1:H2943"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2891" workbookViewId="0">
+      <selection activeCell="D2892" sqref="D2892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -92874,6 +93198,1358 @@
         <v>5765</v>
       </c>
     </row>
+    <row r="2892" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2892" t="s">
+        <v>5770</v>
+      </c>
+      <c r="B2892" t="s">
+        <v>5771</v>
+      </c>
+      <c r="C2892">
+        <v>38.4</v>
+      </c>
+      <c r="D2892" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2892" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2892" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2892" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2892" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2893" t="s">
+        <v>5772</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>5773</v>
+      </c>
+      <c r="C2893">
+        <v>44.2</v>
+      </c>
+      <c r="D2893" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2893" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2893" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2893" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2893" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2894" t="s">
+        <v>5774</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>5775</v>
+      </c>
+      <c r="C2894">
+        <v>295</v>
+      </c>
+      <c r="D2894" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2894" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2894" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2894" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2894" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2895" t="s">
+        <v>5776</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>5777</v>
+      </c>
+      <c r="C2895">
+        <v>372</v>
+      </c>
+      <c r="D2895" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2895" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2895" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2895" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2895" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2896" t="s">
+        <v>5778</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>5779</v>
+      </c>
+      <c r="C2896">
+        <v>149</v>
+      </c>
+      <c r="D2896" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2896" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2896" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2896" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2896" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2897" t="s">
+        <v>5780</v>
+      </c>
+      <c r="B2897" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C2897">
+        <v>278</v>
+      </c>
+      <c r="D2897" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2897" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2897" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2897" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2897" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2898" t="s">
+        <v>5782</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>5783</v>
+      </c>
+      <c r="C2898">
+        <v>195</v>
+      </c>
+      <c r="D2898" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2898" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2898" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2898" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2898" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2899" t="s">
+        <v>5784</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>5785</v>
+      </c>
+      <c r="C2899">
+        <v>231</v>
+      </c>
+      <c r="D2899" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2899" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2899" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2899" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2899" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2900" t="s">
+        <v>5786</v>
+      </c>
+      <c r="B2900" t="s">
+        <v>5787</v>
+      </c>
+      <c r="C2900">
+        <v>330</v>
+      </c>
+      <c r="D2900" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2900" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2900" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2900" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2900" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2901" t="s">
+        <v>5788</v>
+      </c>
+      <c r="B2901" t="s">
+        <v>5789</v>
+      </c>
+      <c r="C2901">
+        <v>387</v>
+      </c>
+      <c r="D2901" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2901" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2901" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2901" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2901" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2902" t="s">
+        <v>5790</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>5791</v>
+      </c>
+      <c r="C2902">
+        <v>110.97</v>
+      </c>
+      <c r="D2902" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2902" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2902" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G2902" t="s">
+        <v>5875</v>
+      </c>
+      <c r="H2902" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2903" t="s">
+        <v>5792</v>
+      </c>
+      <c r="B2903" t="s">
+        <v>5793</v>
+      </c>
+      <c r="C2903">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="D2903" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2903" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2903" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G2903" t="s">
+        <v>5875</v>
+      </c>
+      <c r="H2903" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2904" t="s">
+        <v>5794</v>
+      </c>
+      <c r="B2904" t="s">
+        <v>5795</v>
+      </c>
+      <c r="C2904">
+        <v>50.19</v>
+      </c>
+      <c r="D2904" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2904" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2904" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G2904" t="s">
+        <v>5875</v>
+      </c>
+      <c r="H2904" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2905" t="s">
+        <v>5796</v>
+      </c>
+      <c r="B2905" t="s">
+        <v>5797</v>
+      </c>
+      <c r="C2905">
+        <v>58.71</v>
+      </c>
+      <c r="D2905" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2905" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2905" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G2905" t="s">
+        <v>5875</v>
+      </c>
+      <c r="H2905" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2906" t="s">
+        <v>5798</v>
+      </c>
+      <c r="B2906" t="s">
+        <v>5799</v>
+      </c>
+      <c r="C2906">
+        <v>112.6</v>
+      </c>
+      <c r="D2906" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2906" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2906" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G2906" t="s">
+        <v>5875</v>
+      </c>
+      <c r="H2906" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2907" t="s">
+        <v>5800</v>
+      </c>
+      <c r="B2907" t="s">
+        <v>5801</v>
+      </c>
+      <c r="C2907">
+        <v>625</v>
+      </c>
+      <c r="D2907" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2907" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2907" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2907" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2907" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2908" t="s">
+        <v>5802</v>
+      </c>
+      <c r="B2908" t="s">
+        <v>5803</v>
+      </c>
+      <c r="C2908">
+        <v>643</v>
+      </c>
+      <c r="D2908" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2908" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2908" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2908" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2908" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2909" t="s">
+        <v>5804</v>
+      </c>
+      <c r="B2909" t="s">
+        <v>5805</v>
+      </c>
+      <c r="C2909">
+        <v>986</v>
+      </c>
+      <c r="D2909" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2909" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2909" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2909" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2909" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2910" t="s">
+        <v>5806</v>
+      </c>
+      <c r="B2910" t="s">
+        <v>5807</v>
+      </c>
+      <c r="C2910">
+        <v>240</v>
+      </c>
+      <c r="D2910" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2910" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2910" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2910" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2910" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2911" t="s">
+        <v>5808</v>
+      </c>
+      <c r="B2911" t="s">
+        <v>5809</v>
+      </c>
+      <c r="C2911">
+        <v>291</v>
+      </c>
+      <c r="D2911" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2911" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2911" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2911" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2911" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2912" t="s">
+        <v>5810</v>
+      </c>
+      <c r="B2912" t="s">
+        <v>5811</v>
+      </c>
+      <c r="C2912">
+        <v>320</v>
+      </c>
+      <c r="D2912" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2912" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2912" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2912" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2912" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2913" t="s">
+        <v>5812</v>
+      </c>
+      <c r="B2913" t="s">
+        <v>5813</v>
+      </c>
+      <c r="C2913">
+        <v>36</v>
+      </c>
+      <c r="D2913" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2913" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2913" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2913" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2913" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2914" t="s">
+        <v>5814</v>
+      </c>
+      <c r="B2914" t="s">
+        <v>5815</v>
+      </c>
+      <c r="C2914">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D2914" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2914" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2914" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2914" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2914" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2915" t="s">
+        <v>5816</v>
+      </c>
+      <c r="B2915" t="s">
+        <v>5817</v>
+      </c>
+      <c r="C2915">
+        <v>15.9</v>
+      </c>
+      <c r="D2915" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2915" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2915" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G2915" t="s">
+        <v>5876</v>
+      </c>
+      <c r="H2915" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2916" t="s">
+        <v>5818</v>
+      </c>
+      <c r="B2916" t="s">
+        <v>5819</v>
+      </c>
+      <c r="C2916">
+        <v>1789</v>
+      </c>
+      <c r="D2916" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2916" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2916" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2916" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2916" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2917" t="s">
+        <v>5820</v>
+      </c>
+      <c r="B2917" t="s">
+        <v>5821</v>
+      </c>
+      <c r="C2917">
+        <v>1979</v>
+      </c>
+      <c r="D2917" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2917" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2917" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2917" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2917" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2918" t="s">
+        <v>5822</v>
+      </c>
+      <c r="B2918" t="s">
+        <v>5823</v>
+      </c>
+      <c r="C2918">
+        <v>35</v>
+      </c>
+      <c r="D2918" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2918" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2918" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2918" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2918" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2919" t="s">
+        <v>5824</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>5825</v>
+      </c>
+      <c r="C2919">
+        <v>369</v>
+      </c>
+      <c r="D2919" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2919" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2919" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2919" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2919" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2920" t="s">
+        <v>5826</v>
+      </c>
+      <c r="B2920" t="s">
+        <v>5827</v>
+      </c>
+      <c r="C2920">
+        <v>329</v>
+      </c>
+      <c r="D2920" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2920" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2920" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2920" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2920" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2921" t="s">
+        <v>5828</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>5829</v>
+      </c>
+      <c r="C2921">
+        <v>159</v>
+      </c>
+      <c r="D2921" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2921" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2921" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2921" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2921" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2922" t="s">
+        <v>5830</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>5831</v>
+      </c>
+      <c r="C2922">
+        <v>209</v>
+      </c>
+      <c r="D2922" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2922" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2922" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2922" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2922" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2923" t="s">
+        <v>5832</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>5833</v>
+      </c>
+      <c r="C2923">
+        <v>265</v>
+      </c>
+      <c r="D2923" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2923" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2923" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2923" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2923" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2924" t="s">
+        <v>5834</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>5835</v>
+      </c>
+      <c r="C2924">
+        <v>359</v>
+      </c>
+      <c r="D2924" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2924" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2924" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2924" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2924" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2925" t="s">
+        <v>5836</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>5837</v>
+      </c>
+      <c r="C2925">
+        <v>615</v>
+      </c>
+      <c r="D2925" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2925" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2925" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2925" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2925" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2926" t="s">
+        <v>5838</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>5839</v>
+      </c>
+      <c r="C2926">
+        <v>759</v>
+      </c>
+      <c r="D2926" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2926" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2926" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2926" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2926" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2927" t="s">
+        <v>5840</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>5841</v>
+      </c>
+      <c r="C2927">
+        <v>114</v>
+      </c>
+      <c r="D2927" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2927" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2927" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2927" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2927" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2928" t="s">
+        <v>5842</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>5843</v>
+      </c>
+      <c r="C2928">
+        <v>59.7</v>
+      </c>
+      <c r="D2928" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2928" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2928" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2928" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2928" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2929" t="s">
+        <v>5844</v>
+      </c>
+      <c r="B2929" t="s">
+        <v>5845</v>
+      </c>
+      <c r="C2929">
+        <v>83.9</v>
+      </c>
+      <c r="D2929" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2929" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2929" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2929" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2929" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2930" t="s">
+        <v>5846</v>
+      </c>
+      <c r="B2930" t="s">
+        <v>5847</v>
+      </c>
+      <c r="C2930">
+        <v>104</v>
+      </c>
+      <c r="D2930" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2930" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2930" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2930" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2930" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2931" t="s">
+        <v>5848</v>
+      </c>
+      <c r="B2931" t="s">
+        <v>5849</v>
+      </c>
+      <c r="C2931">
+        <v>179</v>
+      </c>
+      <c r="D2931" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2931" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2931" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2931" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2931" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2932" t="s">
+        <v>5850</v>
+      </c>
+      <c r="B2932" t="s">
+        <v>5851</v>
+      </c>
+      <c r="C2932">
+        <v>219</v>
+      </c>
+      <c r="D2932" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2932" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2932" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2932" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2932" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2933" t="s">
+        <v>5852</v>
+      </c>
+      <c r="B2933" t="s">
+        <v>5853</v>
+      </c>
+      <c r="C2933">
+        <v>279</v>
+      </c>
+      <c r="D2933" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2933" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2933" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2933" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2933" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2934" t="s">
+        <v>5854</v>
+      </c>
+      <c r="B2934" t="s">
+        <v>5855</v>
+      </c>
+      <c r="C2934">
+        <v>389</v>
+      </c>
+      <c r="D2934" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2934" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2934" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2934" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2934" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2935" t="s">
+        <v>5856</v>
+      </c>
+      <c r="B2935" t="s">
+        <v>5857</v>
+      </c>
+      <c r="C2935">
+        <v>799</v>
+      </c>
+      <c r="D2935" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2935" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2935" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2935" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2935" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2936" t="s">
+        <v>5858</v>
+      </c>
+      <c r="B2936" t="s">
+        <v>5859</v>
+      </c>
+      <c r="C2936">
+        <v>979</v>
+      </c>
+      <c r="D2936" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2936" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2936" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2936" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2936" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2937" t="s">
+        <v>5860</v>
+      </c>
+      <c r="B2937" t="s">
+        <v>5861</v>
+      </c>
+      <c r="C2937">
+        <v>1149</v>
+      </c>
+      <c r="D2937" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2937" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2937" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2937" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2937" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2938" t="s">
+        <v>5862</v>
+      </c>
+      <c r="B2938" t="s">
+        <v>5863</v>
+      </c>
+      <c r="C2938">
+        <v>2099</v>
+      </c>
+      <c r="D2938" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2938" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2938" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G2938" t="s">
+        <v>5874</v>
+      </c>
+      <c r="H2938" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2939" t="s">
+        <v>5864</v>
+      </c>
+      <c r="B2939" t="s">
+        <v>5865</v>
+      </c>
+      <c r="C2939">
+        <v>25.08</v>
+      </c>
+      <c r="D2939" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2939" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2939" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G2939" t="s">
+        <v>5875</v>
+      </c>
+      <c r="H2939" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2940" t="s">
+        <v>5866</v>
+      </c>
+      <c r="B2940" t="s">
+        <v>5867</v>
+      </c>
+      <c r="C2940">
+        <v>25.08</v>
+      </c>
+      <c r="D2940" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2940" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2940" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G2940" t="s">
+        <v>5875</v>
+      </c>
+      <c r="H2940" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2941" t="s">
+        <v>5868</v>
+      </c>
+      <c r="B2941" t="s">
+        <v>5869</v>
+      </c>
+      <c r="C2941">
+        <v>31.2</v>
+      </c>
+      <c r="D2941" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2941" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2941" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G2941" t="s">
+        <v>5875</v>
+      </c>
+      <c r="H2941" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2942" t="s">
+        <v>5870</v>
+      </c>
+      <c r="B2942" t="s">
+        <v>5871</v>
+      </c>
+      <c r="C2942">
+        <v>45.03</v>
+      </c>
+      <c r="D2942" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2942" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2942" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G2942" t="s">
+        <v>5875</v>
+      </c>
+      <c r="H2942" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2943" t="s">
+        <v>5872</v>
+      </c>
+      <c r="B2943" t="s">
+        <v>5873</v>
+      </c>
+      <c r="C2943">
+        <v>45.03</v>
+      </c>
+      <c r="D2943" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2943" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2943" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G2943" t="s">
+        <v>5875</v>
+      </c>
+      <c r="H2943" t="s">
+        <v>5877</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H2891" xr:uid="{433DFBC1-6367-48AD-9856-5288885870AF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
